--- a/vttd/data/resources/dictionary/abb_dict_normal.xlsx
+++ b/vttd/data/resources/dictionary/abb_dict_normal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023_Fall\ViTC\vttd\vttd\data\resources\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D44E08-63C5-4D6B-A88B-64C14B4955C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A91C2F1-74A7-474C-807A-D8D65EEA681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="1933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1936">
   <si>
     <t>abbreviation</t>
   </si>
@@ -5819,6 +5819,15 @@
   </si>
   <si>
     <t>cc</t>
+  </si>
+  <si>
+    <t>dbr</t>
+  </si>
+  <si>
+    <t>đbr</t>
+  </si>
+  <si>
+    <t>đầu buồi rẻ rách</t>
   </si>
 </sst>
 </file>
@@ -6181,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1226"/>
+  <dimension ref="A1:B1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="G129" sqref="F129:G130"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="H319" sqref="H319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8706,47 +8715,47 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>514</v>
+        <v>1934</v>
       </c>
       <c r="B315" t="s">
-        <v>515</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>516</v>
+        <v>1933</v>
       </c>
       <c r="B316" t="s">
-        <v>515</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B317" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B318" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B319" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B320" t="s">
         <v>520</v>
@@ -8754,7 +8763,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B321" t="s">
         <v>520</v>
@@ -8762,47 +8771,47 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B322" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B323" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B324" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B325" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B326" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B327" t="s">
         <v>530</v>
@@ -8810,7 +8819,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B328" t="s">
         <v>530</v>
@@ -8818,7 +8827,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B329" t="s">
         <v>530</v>
@@ -8826,7 +8835,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B330" t="s">
         <v>530</v>
@@ -8834,7 +8843,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B331" t="s">
         <v>530</v>
@@ -8842,7 +8851,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B332" t="s">
         <v>530</v>
@@ -8850,39 +8859,39 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B333" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B334" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B335" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B336" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B337" t="s">
         <v>543</v>
@@ -8890,7 +8899,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B338" t="s">
         <v>543</v>
@@ -8898,7 +8907,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B339" t="s">
         <v>543</v>
@@ -8906,7 +8915,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B340" t="s">
         <v>543</v>
@@ -8914,7 +8923,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B341" t="s">
         <v>543</v>
@@ -8922,7 +8931,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B342" t="s">
         <v>543</v>
@@ -8930,7 +8939,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B343" t="s">
         <v>543</v>
@@ -8938,7 +8947,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B344" t="s">
         <v>543</v>
@@ -8946,79 +8955,79 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B345" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B346" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B347" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B348" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B349" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B350" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B351" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B352" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B353" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B354" t="s">
         <v>566</v>
@@ -9026,23 +9035,23 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B355" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B356" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B357" t="s">
         <v>570</v>
@@ -9050,23 +9059,23 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B358" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B359" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B360" t="s">
         <v>574</v>
@@ -9074,7 +9083,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B361" t="s">
         <v>574</v>
@@ -9082,7 +9091,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B362" t="s">
         <v>574</v>
@@ -9090,87 +9099,87 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B363" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B364" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B365" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B366" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B367" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B368" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B369" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B370" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B371" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B372" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B373" t="s">
         <v>594</v>
@@ -9178,55 +9187,55 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B374" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B375" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B376" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B377" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B378" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B379" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B380" t="s">
         <v>606</v>
@@ -9234,7 +9243,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B381" t="s">
         <v>606</v>
@@ -9242,7 +9251,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B382" t="s">
         <v>606</v>
@@ -9250,7 +9259,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B383" t="s">
         <v>606</v>
@@ -9258,7 +9267,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B384" t="s">
         <v>606</v>
@@ -9266,7 +9275,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B385" t="s">
         <v>606</v>
@@ -9274,7 +9283,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B386" t="s">
         <v>606</v>
@@ -9282,7 +9291,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B387" t="s">
         <v>606</v>
@@ -9290,7 +9299,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B388" t="s">
         <v>606</v>
@@ -9298,7 +9307,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B389" t="s">
         <v>606</v>
@@ -9306,7 +9315,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B390" t="s">
         <v>606</v>
@@ -9314,47 +9323,47 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B391" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B392" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B393" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B394" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B395" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B396" t="s">
         <v>623</v>
@@ -9362,55 +9371,55 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B397" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B398" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B399" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B400" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B401" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B402" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B403" t="s">
         <v>635</v>
@@ -9418,7 +9427,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B404" t="s">
         <v>635</v>
@@ -9426,7 +9435,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B405" t="s">
         <v>635</v>
@@ -9434,7 +9443,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B406" t="s">
         <v>635</v>
@@ -9442,191 +9451,191 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B407" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B408" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B409" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B410" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B411" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B412" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B413" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B414" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B415" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B416" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B417" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B418" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B419" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B420" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B421" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B422" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B423" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B424" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B425" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B426" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B427" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B428" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B429" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B430" t="s">
         <v>679</v>
@@ -9634,31 +9643,31 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B431" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B432" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B433" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B434" t="s">
         <v>685</v>
@@ -9666,7 +9675,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B435" t="s">
         <v>685</v>
@@ -9674,63 +9683,63 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B436" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B437" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B438" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B439" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B440" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B441" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B442" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B443" t="s">
         <v>699</v>
@@ -9738,23 +9747,23 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B444" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B445" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B446" t="s">
         <v>703</v>
@@ -9762,7 +9771,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B447" t="s">
         <v>703</v>
@@ -9770,7 +9779,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B448" t="s">
         <v>703</v>
@@ -9778,7 +9787,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B449" t="s">
         <v>703</v>
@@ -9786,7 +9795,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B450" t="s">
         <v>703</v>
@@ -9794,7 +9803,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B451" t="s">
         <v>703</v>
@@ -9802,7 +9811,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B452" t="s">
         <v>703</v>
@@ -9810,7 +9819,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B453" t="s">
         <v>703</v>
@@ -9818,7 +9827,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B454" t="s">
         <v>703</v>
@@ -9826,7 +9835,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B455" t="s">
         <v>703</v>
@@ -9834,7 +9843,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B456" t="s">
         <v>703</v>
@@ -9842,7 +9851,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B457" t="s">
         <v>703</v>
@@ -9850,7 +9859,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B458" t="s">
         <v>703</v>
@@ -9858,79 +9867,79 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B459" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B460" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B461" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B462" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B463" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B464" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B465" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B466" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B467" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B468" t="s">
         <v>731</v>
@@ -9938,55 +9947,55 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B469" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B470" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B471" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B472" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B473" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B474" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B475" t="s">
         <v>741</v>
@@ -9994,47 +10003,47 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B476" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B477" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B478" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B479" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B480" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B481" t="s">
         <v>751</v>
@@ -10042,7 +10051,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B482" t="s">
         <v>751</v>
@@ -10050,31 +10059,31 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B483" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B484" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B485" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B486" t="s">
         <v>758</v>
@@ -10082,15 +10091,15 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B487" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B488" t="s">
         <v>758</v>
@@ -10098,31 +10107,31 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B489" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B490" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B491" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B492" t="s">
         <v>767</v>
@@ -10130,23 +10139,23 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B493" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B494" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B495" t="s">
         <v>771</v>
@@ -10154,7 +10163,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B496" t="s">
         <v>771</v>
@@ -10162,95 +10171,95 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B497" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B498" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B499" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B500" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B501" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B502" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B503" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B504" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B505" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B506" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B507" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B508" t="s">
         <v>794</v>
@@ -10258,95 +10267,95 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B509" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B510" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B511" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B512" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B513" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B514" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B515" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B516" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B517" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B518" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B519" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B520" t="s">
         <v>813</v>
@@ -10354,39 +10363,39 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B521" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B522" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B523" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B524" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B525" t="s">
         <v>821</v>
@@ -10394,7 +10403,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B526" t="s">
         <v>821</v>
@@ -10402,23 +10411,23 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B527" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B528" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B529" t="s">
         <v>826</v>
@@ -10426,7 +10435,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B530" t="s">
         <v>826</v>
@@ -10434,95 +10443,95 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B531" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B532" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B533" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B534" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B535" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B536" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B537" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B538" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B539" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B540" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B541" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B542" t="s">
         <v>848</v>
@@ -10530,7 +10539,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B543" t="s">
         <v>848</v>
@@ -10538,279 +10547,279 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B544" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B545" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B546" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B547" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B548" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B549" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B550" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B551" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B552" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B553" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B554" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B555" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B556" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B557" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B558" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B559" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B560" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B561" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B562" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B563" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B564" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B565" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B566" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B567" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B568" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B569" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B570" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B571" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B572" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B573" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B574" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B575" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B576" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B577" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B578" t="s">
         <v>912</v>
@@ -10818,31 +10827,31 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B579" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B580" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B581" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B582" t="s">
         <v>918</v>
@@ -10850,127 +10859,127 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B583" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B584" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B585" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B586" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B587" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B588" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B589" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B590" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B591" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B592" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>85</v>
+        <v>937</v>
       </c>
       <c r="B593" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B594" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>943</v>
+        <v>85</v>
       </c>
       <c r="B595" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B596" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B597" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B598" t="s">
         <v>946</v>
@@ -10978,23 +10987,23 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B599" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B600" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B601" t="s">
         <v>950</v>
@@ -11002,7 +11011,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B602" t="s">
         <v>950</v>
@@ -11010,7 +11019,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B603" t="s">
         <v>950</v>
@@ -11018,7 +11027,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B604" t="s">
         <v>950</v>
@@ -11026,7 +11035,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B605" t="s">
         <v>950</v>
@@ -11034,7 +11043,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B606" t="s">
         <v>950</v>
@@ -11042,7 +11051,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B607" t="s">
         <v>950</v>
@@ -11050,7 +11059,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B608" t="s">
         <v>950</v>
@@ -11058,7 +11067,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B609" t="s">
         <v>950</v>
@@ -11066,7 +11075,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B610" t="s">
         <v>950</v>
@@ -11074,7 +11083,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B611" t="s">
         <v>950</v>
@@ -11082,7 +11091,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B612" t="s">
         <v>950</v>
@@ -11090,7 +11099,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B613" t="s">
         <v>950</v>
@@ -11098,7 +11107,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B614" t="s">
         <v>950</v>
@@ -11106,7 +11115,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B615" t="s">
         <v>950</v>
@@ -11114,7 +11123,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B616" t="s">
         <v>950</v>
@@ -11122,71 +11131,71 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B617" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B618" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B619" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B620" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B621" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B622" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B623" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B624" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B625" t="s">
         <v>980</v>
@@ -11194,31 +11203,31 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B626" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B627" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B628" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B629" t="s">
         <v>986</v>
@@ -11226,47 +11235,47 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B630" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B631" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B632" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B633" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B634" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B635" t="s">
         <v>996</v>
@@ -11274,223 +11283,223 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B636" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B637" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B638" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B639" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B640" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B641" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B642" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B643" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B644" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B645" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B646" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B647" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B648" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B649" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B650" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B651" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B652" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B653" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B654" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B655" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B656" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B657" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B658" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B659" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B660" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B661" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B662" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B663" t="s">
         <v>1048</v>
@@ -11498,7 +11507,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B664" t="s">
         <v>1048</v>
@@ -11506,7 +11515,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B665" t="s">
         <v>1048</v>
@@ -11514,7 +11523,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B666" t="s">
         <v>1048</v>
@@ -11522,15 +11531,15 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B667" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B668" t="s">
         <v>1048</v>
@@ -11538,15 +11547,15 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B669" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B670" t="s">
         <v>1048</v>
@@ -11554,7 +11563,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B671" t="s">
         <v>1048</v>
@@ -11562,7 +11571,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B672" t="s">
         <v>1048</v>
@@ -11570,7 +11579,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B673" t="s">
         <v>1048</v>
@@ -11578,7 +11587,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B674" t="s">
         <v>1048</v>
@@ -11586,7 +11595,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B675" t="s">
         <v>1048</v>
@@ -11594,7 +11603,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B676" t="s">
         <v>1048</v>
@@ -11602,7 +11611,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B677" t="s">
         <v>1048</v>
@@ -11610,55 +11619,55 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B678" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B679" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B680" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B681" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B682" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B683" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B684" t="s">
         <v>1074</v>
@@ -11666,7 +11675,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B685" t="s">
         <v>1074</v>
@@ -11674,23 +11683,23 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B686" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B687" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B688" t="s">
         <v>1079</v>
@@ -11698,119 +11707,119 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B689" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B690" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B691" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B692" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B693" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B694" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B695" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B696" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B697" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B698" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B699" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B700" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B701" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B702" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B703" t="s">
         <v>1107</v>
@@ -11818,7 +11827,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B704" t="s">
         <v>1107</v>
@@ -11826,7 +11835,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B705" t="s">
         <v>1107</v>
@@ -11834,7 +11843,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B706" t="s">
         <v>1107</v>
@@ -11842,63 +11851,63 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B707" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B708" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B709" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B710" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B711" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B712" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="B713" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B714" t="s">
         <v>1123</v>
@@ -11906,7 +11915,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B715" t="s">
         <v>1123</v>
@@ -11914,87 +11923,87 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B716" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B717" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B718" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B719" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B720" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B721" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="B722" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="B723" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B724" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B725" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B726" t="s">
         <v>1143</v>
@@ -12002,7 +12011,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B727" t="s">
         <v>1143</v>
@@ -12010,23 +12019,23 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B728" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B729" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B730" t="s">
         <v>1148</v>
@@ -12034,207 +12043,207 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B731" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B732" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B733" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B734" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B735" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B736" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B737" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B738" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B739" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B740" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B741" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B742" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B743" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B744" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B745" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B746" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B747" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B748" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B749" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B750" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B751" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B752" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B753" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B754" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B755" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B756" t="s">
         <v>1191</v>
@@ -12242,23 +12251,23 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B757" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B758" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B759" t="s">
         <v>1195</v>
@@ -12266,47 +12275,47 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B760" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B761" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B762" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B763" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B764" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B765" t="s">
         <v>1204</v>
@@ -12314,7 +12323,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B766" t="s">
         <v>1204</v>
@@ -12322,7 +12331,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B767" t="s">
         <v>1204</v>
@@ -12330,47 +12339,47 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B768" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B769" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B770" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B771" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="B772" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B773" t="s">
         <v>1216</v>
@@ -12378,7 +12387,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B774" t="s">
         <v>1216</v>
@@ -12386,23 +12395,23 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B775" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B776" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B777" t="s">
         <v>1221</v>
@@ -12410,7 +12419,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B778" t="s">
         <v>1221</v>
@@ -12418,7 +12427,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B779" t="s">
         <v>1221</v>
@@ -12426,135 +12435,135 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B780" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B781" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B782" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B783" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="B784" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B785" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B786" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B787" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="B788" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B789" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B790" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B791" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B792" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B793" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B794" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B795" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B796" t="s">
         <v>1251</v>
@@ -12562,7 +12571,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B797" t="s">
         <v>1251</v>
@@ -12570,79 +12579,79 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B798" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B799" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B800" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B801" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B802" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B803" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B804" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B805" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B806" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B807" t="s">
         <v>1268</v>
@@ -12650,135 +12659,135 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B808" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B809" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B810" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B811" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B812" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B813" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B814" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="B815" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B816" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B817" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B818" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B819" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B820" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B821" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B822" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B823" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B824" t="s">
         <v>1300</v>
@@ -12786,7 +12795,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B825" t="s">
         <v>1300</v>
@@ -12794,7 +12803,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B826" t="s">
         <v>1300</v>
@@ -12802,7 +12811,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B827" t="s">
         <v>1300</v>
@@ -12810,7 +12819,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B828" t="s">
         <v>1300</v>
@@ -12818,7 +12827,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B829" t="s">
         <v>1300</v>
@@ -12826,7 +12835,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B830" t="s">
         <v>1300</v>
@@ -12834,7 +12843,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B831" t="s">
         <v>1300</v>
@@ -12842,23 +12851,23 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B832" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B833" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B834" t="s">
         <v>1311</v>
@@ -12866,183 +12875,183 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B835" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B836" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B837" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B838" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B839" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B840" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B841" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B842" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="B843" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B844" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B845" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B846" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B847" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B848" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="B849" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B850" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="B851" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B852" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B853" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B854" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B855" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B856" t="s">
         <v>1352</v>
-      </c>
-      <c r="B856" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B857" t="s">
         <v>1354</v>
@@ -13050,7 +13059,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="B858" t="s">
         <v>1354</v>
@@ -13058,7 +13067,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B859" t="s">
         <v>1354</v>
@@ -13066,7 +13075,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B860" t="s">
         <v>1354</v>
@@ -13074,7 +13083,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B861" t="s">
         <v>1354</v>
@@ -13082,7 +13091,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B862" t="s">
         <v>1354</v>
@@ -13090,79 +13099,79 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B863" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B864" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B865" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B866" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B867" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B868" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B869" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B870" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B871" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B872" t="s">
         <v>1374</v>
@@ -13170,7 +13179,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B873" t="s">
         <v>1374</v>
@@ -13178,31 +13187,31 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B874" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B875" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B876" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B877" t="s">
         <v>1381</v>
@@ -13210,111 +13219,111 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B878" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B879" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B880" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="B881" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B882" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B883" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B884" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B885" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B886" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B887" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B888" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B889" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B890" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B891" t="s">
         <v>1405</v>
@@ -13322,7 +13331,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B892" t="s">
         <v>1405</v>
@@ -13330,15 +13339,15 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B893" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B894" t="s">
         <v>1405</v>
@@ -13346,15 +13355,15 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B895" t="s">
-        <v>1405</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B896" t="s">
         <v>1405</v>
@@ -13362,7 +13371,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B897" t="s">
         <v>1405</v>
@@ -13370,15 +13379,15 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B898" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B899" t="s">
         <v>1405</v>
@@ -13386,415 +13395,415 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B900" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B901" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B902" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B903" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B904" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B905" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="B906" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B907" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B908" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B909" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B910" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="B911" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="B912" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="B913" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B914" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="B915" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B916" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B917" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B918" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="B919" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B920" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B921" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B922" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B923" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="B924" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B925" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B926" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B927" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B928" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B929" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B930" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B931" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B932" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B933" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="B934" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B935" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="B936" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B937" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B938" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="B939" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B940" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B941" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B942" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B943" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B944" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B945" t="s">
         <v>1496</v>
-      </c>
-      <c r="B945" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B946" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="B947" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="B948" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B949" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B950" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="B951" t="s">
         <v>1506</v>
@@ -13802,47 +13811,47 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B952" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B953" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B954" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="B955" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="B956" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B957" t="s">
         <v>1516</v>
@@ -13850,31 +13859,31 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B958" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B959" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B960" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B961" t="s">
         <v>1522</v>
@@ -13882,7 +13891,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B962" t="s">
         <v>1522</v>
@@ -13890,55 +13899,55 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B963" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B964" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B965" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B966" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B967" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="B968" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B969" t="s">
         <v>1535</v>
@@ -13946,7 +13955,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B970" t="s">
         <v>1535</v>
@@ -13954,7 +13963,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B971" t="s">
         <v>1535</v>
@@ -13962,103 +13971,103 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B972" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>1422</v>
+        <v>1539</v>
       </c>
       <c r="B973" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="B974" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>1545</v>
+        <v>1422</v>
       </c>
       <c r="B975" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B976" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B977" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="B978" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B979" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B980" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="B981" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="B982" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="B983" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B984" t="s">
         <v>1558</v>
@@ -14066,7 +14075,7 @@
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B985" t="s">
         <v>1558</v>
@@ -14074,7 +14083,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B986" t="s">
         <v>1558</v>
@@ -14082,7 +14091,7 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B987" t="s">
         <v>1558</v>
@@ -14090,7 +14099,7 @@
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B988" t="s">
         <v>1558</v>
@@ -14098,55 +14107,55 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B989" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B990" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B991" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B992" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="B993" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B994" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="B995" t="s">
         <v>1574</v>
@@ -14154,7 +14163,7 @@
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B996" t="s">
         <v>1574</v>
@@ -14162,7 +14171,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B997" t="s">
         <v>1574</v>
@@ -14170,7 +14179,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B998" t="s">
         <v>1574</v>
@@ -14178,79 +14187,79 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B999" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="B1000" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B1001" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B1002" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B1003" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B1004" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B1005" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B1006" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="B1007" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B1008" t="s">
         <v>1592</v>
@@ -14258,7 +14267,7 @@
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B1009" t="s">
         <v>1592</v>
@@ -14266,127 +14275,127 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B1010" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B1011" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B1012" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B1013" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B1014" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B1015" t="s">
-        <v>557</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B1016" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B1017" t="s">
-        <v>1609</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="B1018" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B1019" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B1020" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B1021" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="B1022" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="B1023" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="B1024" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="B1025" t="s">
         <v>1620</v>
@@ -14394,23 +14403,23 @@
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1026" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="B1027" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B1028" t="s">
         <v>1624</v>
@@ -14418,63 +14427,63 @@
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B1029" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B1030" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B1031" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="B1032" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="B1033" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="B1034" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="B1035" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="B1036" t="s">
         <v>1637</v>
@@ -14482,71 +14491,71 @@
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B1037" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="B1038" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="B1039" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B1040" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B1041" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="B1042" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="B1043" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="B1044" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="B1045" t="s">
         <v>1652</v>
@@ -14554,71 +14563,71 @@
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B1046" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="B1047" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="B1048" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B1049" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="B1050" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="B1051" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B1052" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="B1053" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="B1054" t="s">
         <v>1666</v>
@@ -14626,47 +14635,47 @@
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B1055" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B1056" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="B1057" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="B1058" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="B1059" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B1060" t="s">
         <v>1676</v>
@@ -14674,7 +14683,7 @@
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B1061" t="s">
         <v>1676</v>
@@ -14682,7 +14691,7 @@
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B1062" t="s">
         <v>1676</v>
@@ -14690,7 +14699,7 @@
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B1063" t="s">
         <v>1676</v>
@@ -14698,47 +14707,47 @@
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B1064" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B1065" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="B1066" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="B1067" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="B1068" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B1069" t="s">
         <v>1689</v>
@@ -14746,263 +14755,263 @@
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B1070" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="B1071" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B1072" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="B1073" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="B1074" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="B1075" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="B1076" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B1077" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B1078" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B1079" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="B1080" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="B1081" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="B1082" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="B1083" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="B1084" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="B1085" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B1086" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="B1087" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="B1088" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="B1089" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="B1090" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B1091" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="B1092" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B1093" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B1094" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="B1095" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="B1096" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B1097" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="B1098" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B1099" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B1100" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="B1101" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="B1102" t="s">
         <v>1745</v>
@@ -15010,7 +15019,7 @@
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B1103" t="s">
         <v>1745</v>
@@ -15018,7 +15027,7 @@
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B1104" t="s">
         <v>1745</v>
@@ -15026,7 +15035,7 @@
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B1105" t="s">
         <v>1745</v>
@@ -15034,15 +15043,15 @@
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B1106" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="B1107" t="s">
         <v>1745</v>
@@ -15050,15 +15059,15 @@
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="B1108" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B1109" t="s">
         <v>1745</v>
@@ -15066,7 +15075,7 @@
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B1110" t="s">
         <v>1745</v>
@@ -15074,7 +15083,7 @@
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B1111" t="s">
         <v>1745</v>
@@ -15082,7 +15091,7 @@
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B1112" t="s">
         <v>1745</v>
@@ -15090,7 +15099,7 @@
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B1113" t="s">
         <v>1745</v>
@@ -15098,7 +15107,7 @@
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B1114" t="s">
         <v>1745</v>
@@ -15106,7 +15115,7 @@
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B1115" t="s">
         <v>1745</v>
@@ -15114,111 +15123,111 @@
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B1116" t="s">
-        <v>1763</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="B1117" t="s">
-        <v>1765</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="B1118" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="B1119" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="B1120" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B1121" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="B1122" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="B1123" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="B1124" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="B1125" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="B1126" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>462</v>
+        <v>1779</v>
       </c>
       <c r="B1127" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B1128" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>1785</v>
+        <v>462</v>
       </c>
       <c r="B1129" t="s">
         <v>1783</v>
@@ -15226,7 +15235,7 @@
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B1130" t="s">
         <v>1783</v>
@@ -15234,15 +15243,15 @@
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B1131" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="B1132" t="s">
         <v>1783</v>
@@ -15250,15 +15259,15 @@
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="B1133" t="s">
-        <v>1783</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B1134" t="s">
         <v>1783</v>
@@ -15266,7 +15275,7 @@
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B1135" t="s">
         <v>1783</v>
@@ -15274,7 +15283,7 @@
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B1136" t="s">
         <v>1783</v>
@@ -15282,7 +15291,7 @@
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B1137" t="s">
         <v>1783</v>
@@ -15290,7 +15299,7 @@
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B1138" t="s">
         <v>1783</v>
@@ -15298,7 +15307,7 @@
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B1139" t="s">
         <v>1783</v>
@@ -15306,7 +15315,7 @@
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B1140" t="s">
         <v>1783</v>
@@ -15314,23 +15323,23 @@
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B1141" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B1142" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B1143" t="s">
         <v>1799</v>
@@ -15338,79 +15347,79 @@
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B1144" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="B1145" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="B1146" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="B1147" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="B1148" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="B1149" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="B1150" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>375</v>
+        <v>1811</v>
       </c>
       <c r="B1151" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="B1152" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>1817</v>
+        <v>375</v>
       </c>
       <c r="B1153" t="s">
         <v>1815</v>
@@ -15418,7 +15427,7 @@
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B1154" t="s">
         <v>1815</v>
@@ -15426,39 +15435,39 @@
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B1155" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="B1156" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="B1157" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="B1158" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="B1159" t="s">
         <v>1824</v>
@@ -15466,31 +15475,31 @@
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="B1160" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="B1161" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="B1162" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="B1163" t="s">
         <v>1831</v>
@@ -15498,7 +15507,7 @@
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B1164" t="s">
         <v>1831</v>
@@ -15506,47 +15515,47 @@
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1165" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="B1166" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="B1167" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="B1168" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="B1169" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="B1170" t="s">
         <v>1842</v>
@@ -15554,23 +15563,23 @@
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B1171" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="B1172" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="B1173" t="s">
         <v>1846</v>
@@ -15578,7 +15587,7 @@
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B1174" t="s">
         <v>1846</v>
@@ -15586,39 +15595,39 @@
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B1175" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="B1176" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="B1177" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="B1178" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="B1179" t="s">
         <v>1855</v>
@@ -15626,71 +15635,71 @@
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B1180" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="B1181" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="B1182" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="B1183" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="B1184" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="B1185" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="B1186" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="B1187" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="B1188" t="s">
         <v>1870</v>
@@ -15698,55 +15707,55 @@
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B1189" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B1190" t="s">
-        <v>1509</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="B1191" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="B1192" t="s">
-        <v>1877</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="B1193" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="B1194" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="B1195" t="s">
         <v>1880</v>
@@ -15754,23 +15763,23 @@
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B1196" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="B1197" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="B1198" t="s">
         <v>1884</v>
@@ -15778,7 +15787,7 @@
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1199" t="s">
         <v>1884</v>
@@ -15786,119 +15795,119 @@
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B1200" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="B1201" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="B1202" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="B1203" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="B1204" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="B1205" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>1930</v>
+        <v>1896</v>
       </c>
       <c r="B1206" t="s">
-        <v>1931</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B1207" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>1901</v>
+        <v>1930</v>
       </c>
       <c r="B1208" t="s">
-        <v>1900</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="B1209" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="B1210" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="B1211" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="B1212" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="B1213" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="B1214" t="s">
         <v>1908</v>
@@ -15906,55 +15915,55 @@
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B1215" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="B1216" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="B1217" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B1218" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="B1219" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="B1220" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="B1221" t="s">
         <v>1920</v>
@@ -15962,7 +15971,7 @@
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B1222" t="s">
         <v>1920</v>
@@ -15970,7 +15979,7 @@
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="B1223" t="s">
         <v>1920</v>
@@ -15978,25 +15987,41 @@
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B1224" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="B1225" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
         <v>1929</v>
       </c>
-      <c r="B1226" t="s">
+      <c r="B1228" t="s">
         <v>1928</v>
       </c>
     </row>
